--- a/data/Kuban.xlsx
+++ b/data/Kuban.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -335,9 +335,6 @@
     <t>ВЛ 500 кВ Ростовская АЭС – Тихорецк №2 и ВЛ 220 кВ Волгодонск – Сальская (Р2+Р11)</t>
   </si>
   <si>
-    <t xml:space="preserve">ВЛ 500 кВ Ростовская АЭС – Тихорецк №1 и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг II цепь (Р2+Р15) </t>
-  </si>
-  <si>
     <t xml:space="preserve">ВЛ 500 кВ Ростовская АЭС – Тихорецк №2 и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг II цепь (Р2+Р15) </t>
   </si>
   <si>
@@ -357,11 +354,6 @@
     <t>1 СШ-500 кВ ПС 500 кВ Тихорецк и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг I цепь (Р26+Р14)
 или
 2 СШ-500 кВ ПС 500 кВ Тихорецк и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг I цепь (Р27+Р14)</t>
-  </si>
-  <si>
-    <t>2 СШ-500 кВ ПС 500 кВ Тихорецк и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг I цепь (Р26+Р15)
-Или
-2 СШ-500 кВ ПС 500 кВ Тихорецк и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг II цепь (Р27+Р15)</t>
   </si>
   <si>
     <t>1 СШ-500 кВ ПС 500 кВ Тихорецк и одной из ВЛ транзита 220 кВ А-20 – А-30 – Староминская. (Р26+Р24) 
@@ -410,6 +402,14 @@
   </si>
   <si>
     <t>КПР-3_"Кубанское"</t>
+  </si>
+  <si>
+    <t>2 СШ-500 кВ ПС 500 кВ Тихорецк и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг I цепь (Р26+Р15)
+или
+2 СШ-500 кВ ПС 500 кВ Тихорецк и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг II цепь (Р27+Р15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВЛ 500 кВ Ростовская АЭС – Тихорецк №1 и КВЛ 220 кВ Новочеркасская ГРЭС – Койсуг II цепь (Р1+Р15) </t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="9" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="8">
         <v>20</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="10" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="8">
         <v>9</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="11" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="12" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="13" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="8">
         <v>16</v>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="AJ98" s="4"/>
     </row>
-    <row r="99" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>35</v>
       </c>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="AJ99" s="4"/>
     </row>
-    <row r="100" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
         <v>35</v>
       </c>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="AJ100" s="4"/>
     </row>
-    <row r="101" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>35</v>
       </c>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="AJ101" s="4"/>
     </row>
-    <row r="102" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
         <v>35</v>
       </c>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="AJ102" s="4"/>
     </row>
-    <row r="103" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>35</v>
       </c>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="AJ103" s="4"/>
     </row>
-    <row r="104" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
         <v>35</v>
       </c>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="AJ104" s="4"/>
     </row>
-    <row r="105" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>35</v>
       </c>
@@ -15137,8 +15137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A41"/>
+    <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15160,7 +15160,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -17445,7 +17445,7 @@
     </row>
     <row r="28" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="8">
         <v>16</v>
@@ -17529,7 +17529,7 @@
     </row>
     <row r="29" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -17613,7 +17613,7 @@
     </row>
     <row r="30" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="8">
         <v>2</v>
@@ -17697,7 +17697,7 @@
     </row>
     <row r="31" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="8">
         <v>14</v>
@@ -17769,7 +17769,7 @@
     </row>
     <row r="32" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="8">
         <v>17</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="33" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="8">
         <v>5</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="34" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="8">
         <v>6</v>
@@ -18069,7 +18069,7 @@
       </c>
       <c r="AJ35" s="4"/>
     </row>
-    <row r="36" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>47</v>
       </c>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="AJ36" s="4"/>
     </row>
-    <row r="37" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>47</v>
       </c>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="AJ37" s="4"/>
     </row>
-    <row r="38" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>47</v>
       </c>
@@ -18301,7 +18301,7 @@
       </c>
       <c r="AJ38" s="4"/>
     </row>
-    <row r="39" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>47</v>
       </c>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="AJ39" s="4"/>
     </row>
-    <row r="40" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="AJ40" s="4"/>
     </row>
-    <row r="41" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>47</v>
       </c>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="AJ64" s="4"/>
     </row>
-    <row r="65" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>51</v>
       </c>
@@ -20541,7 +20541,7 @@
       </c>
       <c r="AJ65" s="4"/>
     </row>
-    <row r="66" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>51</v>
       </c>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="AJ66" s="4"/>
     </row>
-    <row r="67" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>51</v>
       </c>
@@ -20709,7 +20709,7 @@
       </c>
       <c r="AJ67" s="4"/>
     </row>
-    <row r="68" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>51</v>
       </c>
@@ -20785,7 +20785,7 @@
       </c>
       <c r="AJ68" s="4"/>
     </row>
-    <row r="69" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>51</v>
       </c>
@@ -20857,7 +20857,7 @@
       </c>
       <c r="AJ69" s="4"/>
     </row>
-    <row r="70" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>51</v>
       </c>
@@ -20927,7 +20927,7 @@
       </c>
       <c r="AJ70" s="4"/>
     </row>
-    <row r="71" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>51</v>
       </c>
@@ -22029,7 +22029,7 @@
       </c>
       <c r="AJ85" s="4"/>
     </row>
-    <row r="86" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
         <v>54</v>
       </c>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="AJ86" s="4"/>
     </row>
-    <row r="87" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>54</v>
       </c>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="AJ87" s="4"/>
     </row>
-    <row r="88" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
         <v>54</v>
       </c>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="AJ88" s="4"/>
     </row>
-    <row r="89" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>54</v>
       </c>
@@ -22377,7 +22377,7 @@
       </c>
       <c r="AJ89" s="4"/>
     </row>
-    <row r="90" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
         <v>54</v>
       </c>
@@ -22457,7 +22457,7 @@
       </c>
       <c r="AJ90" s="4"/>
     </row>
-    <row r="91" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>54</v>
       </c>
@@ -22535,7 +22535,7 @@
       </c>
       <c r="AJ91" s="4"/>
     </row>
-    <row r="92" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>54</v>
       </c>
@@ -22609,7 +22609,7 @@
       </c>
       <c r="AJ92" s="4"/>
     </row>
-    <row r="93" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>55</v>
       </c>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="AJ93" s="4"/>
     </row>
-    <row r="94" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
         <v>55</v>
       </c>
@@ -22793,7 +22793,7 @@
       </c>
       <c r="AJ94" s="4"/>
     </row>
-    <row r="95" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>55</v>
       </c>
@@ -22875,7 +22875,7 @@
       </c>
       <c r="AJ95" s="4"/>
     </row>
-    <row r="96" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
         <v>55</v>
       </c>
@@ -22957,7 +22957,7 @@
       </c>
       <c r="AJ96" s="4"/>
     </row>
-    <row r="97" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>55</v>
       </c>
@@ -23037,7 +23037,7 @@
       </c>
       <c r="AJ97" s="4"/>
     </row>
-    <row r="98" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
         <v>55</v>
       </c>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="AJ98" s="4"/>
     </row>
-    <row r="99" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>55</v>
       </c>
@@ -27407,7 +27407,7 @@
     </row>
     <row r="154" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B154" s="8">
         <v>20</v>
@@ -27497,7 +27497,7 @@
     </row>
     <row r="155" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B155" s="8">
         <v>9</v>
@@ -27571,7 +27571,7 @@
     </row>
     <row r="156" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B156" s="8">
         <v>1</v>
@@ -27639,7 +27639,7 @@
     </row>
     <row r="157" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B157" s="8">
         <v>2</v>
@@ -27707,7 +27707,7 @@
     </row>
     <row r="158" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B158" s="8">
         <v>17</v>
@@ -27769,7 +27769,7 @@
     </row>
     <row r="159" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B159" s="8">
         <v>14</v>
@@ -27825,7 +27825,7 @@
     </row>
     <row r="160" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B160" s="8">
         <v>5</v>
@@ -27885,7 +27885,7 @@
     </row>
     <row r="161" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B161" s="8">
         <v>6</v>
@@ -27945,7 +27945,7 @@
     </row>
     <row r="162" spans="1:36" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B162" s="8">
         <v>10</v>
@@ -28005,7 +28005,7 @@
     </row>
     <row r="163" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B163" s="8">
         <v>20</v>
@@ -28095,7 +28095,7 @@
     </row>
     <row r="164" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B164" s="8">
         <v>9</v>
@@ -28161,7 +28161,7 @@
     </row>
     <row r="165" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B165" s="8">
         <v>1</v>
@@ -28215,7 +28215,7 @@
     </row>
     <row r="166" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B166" s="8">
         <v>2</v>
@@ -28269,7 +28269,7 @@
     </row>
     <row r="167" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B167" s="8">
         <v>15</v>
@@ -28327,7 +28327,7 @@
     </row>
     <row r="168" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B168" s="8">
         <v>14</v>
@@ -28387,7 +28387,7 @@
     </row>
     <row r="169" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B169" s="8">
         <v>6</v>
@@ -28467,7 +28467,7 @@
     </row>
     <row r="170" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B170" s="8">
         <v>16</v>
@@ -28525,7 +28525,7 @@
     </row>
     <row r="171" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B171" s="8">
         <v>20</v>
@@ -28615,7 +28615,7 @@
     </row>
     <row r="172" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B172" s="8">
         <v>9</v>
@@ -28681,7 +28681,7 @@
     </row>
     <row r="173" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B173" s="8">
         <v>1</v>
@@ -28735,7 +28735,7 @@
     </row>
     <row r="174" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B174" s="8">
         <v>2</v>
@@ -28789,7 +28789,7 @@
     </row>
     <row r="175" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B175" s="8">
         <v>15</v>
@@ -28847,7 +28847,7 @@
     </row>
     <row r="176" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B176" s="8">
         <v>14</v>
@@ -28909,7 +28909,7 @@
     </row>
     <row r="177" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B177" s="8">
         <v>5</v>
@@ -28989,7 +28989,7 @@
     </row>
     <row r="178" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B178" s="8">
         <v>16</v>
@@ -29741,7 +29741,7 @@
     </row>
     <row r="187" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B187" s="8">
         <v>20</v>
@@ -29817,7 +29817,7 @@
     </row>
     <row r="188" spans="1:36" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B188" s="8">
         <v>20</v>
@@ -29893,7 +29893,7 @@
     </row>
     <row r="189" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B189" s="8">
         <v>20</v>
@@ -29983,7 +29983,7 @@
     </row>
     <row r="190" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B190" s="8">
         <v>9</v>
@@ -30049,7 +30049,7 @@
     </row>
     <row r="191" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B191" s="8">
         <v>1</v>
@@ -30107,7 +30107,7 @@
     </row>
     <row r="192" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B192" s="8">
         <v>2</v>
@@ -30165,7 +30165,7 @@
     </row>
     <row r="193" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B193" s="8">
         <v>16</v>
@@ -30225,7 +30225,7 @@
     </row>
     <row r="194" spans="1:36" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B194" s="8">
         <v>10</v>
@@ -30343,7 +30343,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -31393,8 +31393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI178"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31416,7 +31416,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -32673,7 +32673,7 @@
     </row>
     <row r="17" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="26">
         <v>20</v>
@@ -38590,7 +38590,7 @@
     </row>
     <row r="84" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B84" s="8">
         <v>2</v>
@@ -38683,7 +38683,7 @@
     </row>
     <row r="85" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B85" s="8">
         <v>9</v>
@@ -38776,7 +38776,7 @@
     </row>
     <row r="86" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B86" s="8">
         <v>16</v>
@@ -38865,7 +38865,7 @@
     </row>
     <row r="87" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B87" s="8">
         <v>5</v>
@@ -38964,7 +38964,7 @@
     </row>
     <row r="88" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B88" s="8">
         <v>10</v>
@@ -39043,7 +39043,7 @@
     </row>
     <row r="89" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B89" s="8">
         <v>15</v>
@@ -39122,7 +39122,7 @@
     </row>
     <row r="90" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B90" s="8">
         <v>14</v>
@@ -39201,7 +39201,7 @@
     </row>
     <row r="91" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B91" s="8">
         <v>17</v>
@@ -39970,7 +39970,7 @@
     </row>
     <row r="100" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" s="8">
         <v>1</v>
@@ -40063,7 +40063,7 @@
     </row>
     <row r="101" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" s="8">
         <v>9</v>
@@ -40156,7 +40156,7 @@
     </row>
     <row r="102" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B102" s="8">
         <v>16</v>
@@ -40245,7 +40245,7 @@
     </row>
     <row r="103" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B103" s="8">
         <v>5</v>
@@ -40344,7 +40344,7 @@
     </row>
     <row r="104" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" s="8">
         <v>10</v>
@@ -40423,7 +40423,7 @@
     </row>
     <row r="105" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B105" s="8">
         <v>15</v>
@@ -40502,7 +40502,7 @@
     </row>
     <row r="106" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B106" s="8">
         <v>14</v>
@@ -40581,7 +40581,7 @@
     </row>
     <row r="107" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B107" s="8">
         <v>17</v>
@@ -41494,7 +41494,7 @@
     </row>
     <row r="118" spans="1:35" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B118" s="8">
         <v>20</v>
@@ -41599,7 +41599,7 @@
     </row>
     <row r="119" spans="1:35" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -41684,7 +41684,7 @@
     </row>
     <row r="120" spans="1:35" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B120" s="8">
         <v>2</v>
@@ -41769,7 +41769,7 @@
     </row>
     <row r="121" spans="1:35" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B121" s="8">
         <v>16</v>
@@ -41850,7 +41850,7 @@
     </row>
     <row r="122" spans="1:35" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B122" s="8">
         <v>17</v>
@@ -41935,7 +41935,7 @@
     </row>
     <row r="123" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B123" s="8">
         <v>20</v>
@@ -42024,7 +42024,7 @@
     </row>
     <row r="124" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B124" s="8">
         <v>9</v>
@@ -42095,7 +42095,7 @@
     </row>
     <row r="125" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B125" s="8">
         <v>1</v>
@@ -42160,7 +42160,7 @@
     </row>
     <row r="126" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B126" s="8">
         <v>2</v>
@@ -42225,7 +42225,7 @@
     </row>
     <row r="127" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B127" s="8">
         <v>5</v>
@@ -42294,7 +42294,7 @@
     </row>
     <row r="128" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B128" s="8">
         <v>6</v>
@@ -42363,7 +42363,7 @@
     </row>
     <row r="129" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B129" s="8">
         <v>10</v>
@@ -42424,7 +42424,7 @@
     </row>
     <row r="130" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B130" s="8">
         <v>14</v>
@@ -42485,7 +42485,7 @@
     </row>
     <row r="131" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B131" s="8">
         <v>17</v>
@@ -42546,7 +42546,7 @@
     </row>
     <row r="132" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B132" s="8">
         <v>20</v>
@@ -42945,7 +42945,7 @@
     </row>
     <row r="137" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B137" s="8">
         <v>20</v>
@@ -43028,7 +43028,7 @@
     </row>
     <row r="138" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B138" s="8">
         <v>9</v>
@@ -43099,7 +43099,7 @@
     </row>
     <row r="139" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B139" s="8">
         <v>16</v>
@@ -43166,7 +43166,7 @@
     </row>
     <row r="140" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B140" s="8">
         <v>6</v>
@@ -43245,7 +43245,7 @@
     </row>
     <row r="141" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B141" s="8">
         <v>20</v>
@@ -43328,7 +43328,7 @@
     </row>
     <row r="142" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B142" s="8">
         <v>9</v>
@@ -43397,7 +43397,7 @@
     </row>
     <row r="143" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B143" s="8">
         <v>16</v>
@@ -43464,7 +43464,7 @@
     </row>
     <row r="144" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B144" s="8">
         <v>5</v>
@@ -43745,7 +43745,7 @@
     </row>
     <row r="147" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B147" s="8">
         <v>20</v>
@@ -46322,7 +46322,7 @@
     </row>
     <row r="178" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B178" s="26">
         <v>20</v>
@@ -46403,6 +46403,7 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
@@ -46418,14 +46419,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
@@ -46438,6 +46436,8 @@
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46470,7 +46470,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -47391,7 +47391,7 @@
     </row>
     <row r="13" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="8">
         <v>9</v>
@@ -47490,7 +47490,7 @@
     </row>
     <row r="14" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="8">
         <v>16</v>
@@ -47553,7 +47553,7 @@
     </row>
     <row r="15" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="8">
         <v>10</v>
@@ -47638,7 +47638,7 @@
     </row>
     <row r="16" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="8">
         <v>5</v>
@@ -47719,7 +47719,7 @@
     </row>
     <row r="17" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8">
         <v>6</v>
@@ -47800,7 +47800,7 @@
     </row>
     <row r="18" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="8">
         <v>14</v>
@@ -47881,7 +47881,7 @@
     </row>
     <row r="19" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="8">
         <v>15</v>
@@ -47962,7 +47962,7 @@
     </row>
     <row r="20" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="8">
         <v>17</v>
